--- a/biology/Médecine/Hème/Hème.xlsx
+++ b/biology/Médecine/Hème/Hème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A8me</t>
+          <t>Hème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hème est un cofacteur contenant un atome de métal, souvent du fer, servant à accueillir un gaz diatomique (par exemple du dioxygène O2) au centre d’un large anneau organique appelé porphyrine. Toutes les porphyrines ne contiennent pas nécessairement un atome de fer mais la majorité des métalloprotéines qui contiennent des porphyrines ont en fait l’hème comme sous-unité prosthétique.
 Il existe trois types d’hème biologiquement importants :
